--- a/ESTADOS DE CUENTA - copia.xlsx
+++ b/ESTADOS DE CUENTA - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\Cevallos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD3D8F3-A40C-4BE3-B640-0AEDA4DAB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE007D91-D9E4-426C-87AF-B58FAA507AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9E91BBE-6BD1-46CC-99EB-47294A89BA38}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$R$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$R$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>PELETERIA VALAMY</t>
   </si>
@@ -88,19 +88,10 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>POR VENCER</t>
-  </si>
-  <si>
     <t>NUMERO DE NOTA O FACTURA</t>
   </si>
   <si>
-    <t>VENCIDO</t>
-  </si>
-  <si>
-    <t>FACTURA 5194</t>
-  </si>
-  <si>
-    <t>FACTURA 5261</t>
+    <t>GUIDO RAMIREZ</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,34 +497,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,82 +524,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,20 +555,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,43 +632,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58963D1-B41B-4AFD-8202-D8B6C2BC19BC}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,99 +1021,102 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="2.7109375" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="1">
-        <v>45567</v>
+        <v>45574</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="56"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="1">
-        <v>45567</v>
+        <v>45574</v>
       </c>
       <c r="S3" s="4"/>
     </row>
@@ -1127,501 +1124,443 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30" t="s">
+      <c r="L4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="N4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="33"/>
+      <c r="P4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="31"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="40">
-        <v>3914</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42">
-        <v>45538</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="44">
-        <v>93.6</v>
-      </c>
-      <c r="H5" s="45"/>
+      <c r="B5" s="42">
+        <v>4073</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40">
+        <v>45566</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="34">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="H5" s="35"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="40">
-        <v>3914</v>
-      </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42">
-        <v>45538</v>
-      </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="44">
-        <v>93.6</v>
-      </c>
-      <c r="R5" s="45"/>
+      <c r="L5" s="42">
+        <v>4073</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="40">
+        <v>45566</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="34">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="R5" s="35"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
-        <v>3560</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21">
-        <v>45531</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="22">
-        <v>8278</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="B6" s="16">
+        <v>3948</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14">
+        <v>45559</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="36">
+        <v>8</v>
+      </c>
+      <c r="H6" s="37"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="19">
-        <v>3560</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21">
-        <v>45531</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>8278</v>
-      </c>
-      <c r="R6" s="23"/>
+      <c r="L6" s="16">
+        <v>3948</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="14">
+        <v>45559</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="36">
+        <v>8</v>
+      </c>
+      <c r="R6" s="37"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="19">
-        <v>3496</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21">
-        <v>45513</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="22">
-        <v>4990.2</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="B7" s="16">
+        <v>3932</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14">
+        <v>45548</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="36">
+        <v>10.4</v>
+      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="19">
-        <v>3496</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21">
-        <v>45513</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>4990.2</v>
-      </c>
-      <c r="R7" s="23"/>
+      <c r="L7" s="16">
+        <v>3932</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="14">
+        <v>45548</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="36">
+        <v>10.4</v>
+      </c>
+      <c r="R7" s="37"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21">
-        <v>45513</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="22">
-        <v>322.39999999999998</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="B8" s="16">
+        <v>3923</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14">
+        <v>45544</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="36">
+        <v>9.6</v>
+      </c>
+      <c r="H8" s="37"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="L8" s="19">
-        <v>5261</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21">
-        <v>45513</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>322.39999999999998</v>
-      </c>
-      <c r="R8" s="23"/>
+      <c r="L8" s="16">
+        <v>3923</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14">
+        <v>45544</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="36">
+        <v>9.6</v>
+      </c>
+      <c r="R8" s="37"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
-        <v>3384</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21">
-        <v>45488</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="22">
-        <v>1900</v>
-      </c>
-      <c r="H9" s="23"/>
+      <c r="B9" s="16">
+        <v>3918</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14">
+        <v>45540</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="36">
+        <v>78</v>
+      </c>
+      <c r="H9" s="37"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="19">
-        <v>3384</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21">
-        <v>45488</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>1900</v>
-      </c>
-      <c r="R9" s="23"/>
+      <c r="L9" s="16">
+        <v>3918</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="14">
+        <v>45540</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="36">
+        <v>78</v>
+      </c>
+      <c r="R9" s="37"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21">
-        <v>45476</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="22">
-        <v>240</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="B10" s="16">
+        <v>3793</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14">
+        <v>45519</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="36">
+        <v>431.8</v>
+      </c>
+      <c r="H10" s="37"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="2">
         <v>6</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21">
-        <v>45476</v>
-      </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>240</v>
-      </c>
-      <c r="R10" s="23"/>
+      <c r="L10" s="16">
+        <v>3793</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="14">
+        <v>45519</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="36">
+        <v>431.8</v>
+      </c>
+      <c r="R10" s="37"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="63">
-        <v>3672</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="21">
-        <v>45461</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="22">
-        <v>77</v>
-      </c>
-      <c r="H11" s="23"/>
+      <c r="B11" s="18">
+        <v>3774</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="14">
+        <v>45511</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="36">
+        <v>156</v>
+      </c>
+      <c r="H11" s="37"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="2">
         <v>7</v>
       </c>
-      <c r="L11" s="63">
-        <v>3672</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="21">
-        <v>45461</v>
-      </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>77</v>
-      </c>
-      <c r="R11" s="23"/>
+      <c r="L11" s="18">
+        <v>3774</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="14">
+        <v>45511</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="36">
+        <v>156</v>
+      </c>
+      <c r="R11" s="37"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19">
-        <v>3661</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21">
-        <v>45457</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="22">
-        <v>72</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="18">
+        <v>3741</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="14">
+        <v>45499</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H12" s="37"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="2">
-        <v>8</v>
-      </c>
-      <c r="L12" s="19">
-        <v>3661</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21">
-        <v>45457</v>
-      </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>72</v>
-      </c>
-      <c r="R12" s="23"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="18">
+        <v>3741</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="14">
+        <v>45499</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12" s="37"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19">
-        <v>3775</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21">
-        <v>45450</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="22">
-        <v>25</v>
-      </c>
-      <c r="H13" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3729</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14">
+        <v>45495</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="H13" s="37"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="16">
+        <v>3729</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="14">
+        <v>45495</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="R13" s="37"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="L13" s="19">
-        <v>3775</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21">
-        <v>45450</v>
-      </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>25</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72">
-        <f>SUM(G5:H13)</f>
-        <v>15998.199999999999</v>
-      </c>
-      <c r="H14" s="73"/>
+      <c r="B14" s="16">
+        <v>3681</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14">
+        <v>45469</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="36">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H14" s="37"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3681</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="14">
+        <v>45469</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="36">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="72">
-        <f>SUM(Q5:R13)</f>
-        <v>15998.199999999999</v>
-      </c>
-      <c r="R14" s="73"/>
-      <c r="S14" s="4"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="38">
+        <f>SUM(G5:H14)</f>
+        <v>1347.2999999999997</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="38">
+        <f>SUM(Q5:R14)</f>
+        <v>1347.2999999999997</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G14:H14"/>
+  <mergeCells count="80">
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="L4:M4"/>
@@ -1634,12 +1573,73 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1673,46 +1673,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="3"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="3"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="1">
         <v>45448</v>
       </c>
@@ -1721,37 +1721,37 @@
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="3"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="3"/>
       <c r="K5" s="4"/>
     </row>
@@ -1760,18 +1760,18 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="42">
         <v>3879</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42">
+      <c r="D6" s="43"/>
+      <c r="E6" s="40">
         <v>45414</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44">
+      <c r="F6" s="41"/>
+      <c r="G6" s="34">
         <v>23.4</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="3"/>
       <c r="K6" s="4"/>
     </row>
@@ -1780,18 +1780,18 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="42">
         <v>3858</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42">
+      <c r="D7" s="43"/>
+      <c r="E7" s="40">
         <v>45406</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44">
+      <c r="F7" s="41"/>
+      <c r="G7" s="34">
         <v>290.5</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4"/>
     </row>
@@ -1800,18 +1800,18 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>3116</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21">
+      <c r="D8" s="17"/>
+      <c r="E8" s="14">
         <v>45405</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="22">
+      <c r="F8" s="15"/>
+      <c r="G8" s="36">
         <v>1625.6</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="3"/>
       <c r="K8" s="4"/>
     </row>
@@ -1820,18 +1820,18 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>3874</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21">
+      <c r="D9" s="17"/>
+      <c r="E9" s="14">
         <v>45390</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="22">
+      <c r="F9" s="15"/>
+      <c r="G9" s="36">
         <v>436.2</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="3"/>
       <c r="K9" s="4"/>
     </row>
@@ -1840,18 +1840,18 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>3809</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21">
+      <c r="D10" s="17"/>
+      <c r="E10" s="14">
         <v>45384</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="22">
+      <c r="F10" s="15"/>
+      <c r="G10" s="36">
         <v>193.8</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
     </row>
@@ -1860,12 +1860,12 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
     </row>
@@ -1874,12 +1874,12 @@
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="3"/>
       <c r="K12" s="4"/>
     </row>
@@ -1888,12 +1888,12 @@
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="3"/>
       <c r="K13" s="4"/>
     </row>
@@ -1902,12 +1902,12 @@
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="3"/>
       <c r="K14" s="4"/>
     </row>
@@ -1916,12 +1916,12 @@
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="3"/>
       <c r="K15" s="4"/>
     </row>
@@ -1930,65 +1930,65 @@
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="3"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="60">
         <f>SUM(G6:H16)</f>
         <v>2569.5</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="3"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="3"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="3"/>
       <c r="K19" s="4"/>
     </row>
@@ -1997,12 +1997,12 @@
       <c r="B20" s="5">
         <v>12</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="3"/>
       <c r="K20" s="4"/>
     </row>
@@ -2011,12 +2011,12 @@
       <c r="B21" s="5">
         <v>13</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="3"/>
       <c r="K21" s="4"/>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="B22" s="5">
         <v>14</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="3"/>
       <c r="K22" s="4"/>
     </row>
@@ -2039,12 +2039,12 @@
       <c r="B23" s="5">
         <v>15</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="3"/>
       <c r="K23" s="4"/>
     </row>
@@ -2053,12 +2053,12 @@
       <c r="B24" s="5">
         <v>16</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="3"/>
       <c r="K24" s="4"/>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="B25" s="5">
         <v>17</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="3"/>
       <c r="K25" s="4"/>
     </row>
@@ -2081,12 +2081,12 @@
       <c r="B26" s="5">
         <v>18</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="3"/>
       <c r="K26" s="4"/>
     </row>
@@ -2095,12 +2095,12 @@
       <c r="B27" s="5">
         <v>19</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="3"/>
       <c r="K27" s="4"/>
     </row>
@@ -2109,65 +2109,65 @@
       <c r="B28" s="5">
         <v>20</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="3"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="60">
         <f>SUM(G20:H28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="3"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
       <c r="I30" s="3"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="3"/>
       <c r="K31" s="4"/>
     </row>
@@ -2176,12 +2176,12 @@
       <c r="B32" s="5">
         <v>21</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="3"/>
       <c r="K32" s="4"/>
     </row>
@@ -2190,12 +2190,12 @@
       <c r="B33" s="5">
         <v>22</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="3"/>
       <c r="K33" s="4"/>
     </row>
@@ -2204,12 +2204,12 @@
       <c r="B34" s="5">
         <v>23</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="3"/>
       <c r="K34" s="4"/>
     </row>
@@ -2218,65 +2218,65 @@
       <c r="B35" s="5">
         <v>24</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="3"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="60">
         <f>SUM(G32:H35)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="3"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
       <c r="I37" s="3"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="30" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="30" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="3"/>
       <c r="K38" s="4"/>
     </row>
@@ -2285,12 +2285,12 @@
       <c r="B39" s="5">
         <v>25</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="3"/>
       <c r="K39" s="4"/>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="B40" s="5">
         <v>26</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="3"/>
       <c r="K40" s="4"/>
     </row>
@@ -2313,51 +2313,147 @@
       <c r="B41" s="5">
         <v>27</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="3"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="60">
         <f>SUM(G39:H41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="61"/>
       <c r="I42" s="3"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17">
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73">
         <f>SUM(G17+G29+G36+G42)</f>
         <v>2569.5</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="74"/>
       <c r="I43" s="3"/>
       <c r="K43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -2382,102 +2478,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
